--- a/target/classes/com/junithybrid/xlsx/Suite.xlsx
+++ b/target/classes/com/junithybrid/xlsx/Suite.xlsx
@@ -41,13 +41,13 @@
     <t>Search for items</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>C_Suite</t>
   </si>
   <si>
     <t>Dummy suite</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -203,18 +203,18 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
